--- a/Data/Preprocessed Data/Data_Dictionary_Ref.xlsx
+++ b/Data/Preprocessed Data/Data_Dictionary_Ref.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josie/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josie/PycharmProjects/HemoPheno4HF/Data/Preprocessed Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6FAA41-BC7D-2543-8B9B-9875B79E35BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3838ABD7-2AE3-B74D-B169-34729A7CA2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2820" windowWidth="26840" windowHeight="15940" xr2:uid="{3C7A453F-F56A-6346-B453-C1F685D97160}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{3C7A453F-F56A-6346-B453-C1F685D97160}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="212">
   <si>
     <t>*Bold is the category name, underneath is the parameters in that section</t>
   </si>
@@ -278,12 +278,6 @@
     <t>ANGP</t>
   </si>
   <si>
-    <t>AOREG</t>
-  </si>
-  <si>
-    <t>AOST</t>
-  </si>
-  <si>
     <t>ARRH</t>
   </si>
   <si>
@@ -299,18 +293,12 @@
     <t>CVD</t>
   </si>
   <si>
-    <t>CYTOE</t>
-  </si>
-  <si>
     <t>DEPR</t>
   </si>
   <si>
     <t>DIAB</t>
   </si>
   <si>
-    <t>FAMILE</t>
-  </si>
-  <si>
     <t>GOUT</t>
   </si>
   <si>
@@ -320,78 +308,30 @@
     <t>HTN</t>
   </si>
   <si>
-    <t>HYPERE</t>
-  </si>
-  <si>
     <t>HTRANS</t>
   </si>
   <si>
     <t>ICD</t>
   </si>
   <si>
-    <t>IDIOPE</t>
-  </si>
-  <si>
-    <t>ISCHD</t>
-  </si>
-  <si>
-    <t>ISCHEME</t>
-  </si>
-  <si>
     <t>MALIG</t>
   </si>
   <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>MTST</t>
-  </si>
-  <si>
     <t>PACE</t>
   </si>
   <si>
-    <t>PERIPAE</t>
-  </si>
-  <si>
-    <t>PMRG</t>
-  </si>
-  <si>
     <t>PTCI</t>
   </si>
   <si>
-    <t>PTREG</t>
-  </si>
-  <si>
-    <t>PVD</t>
-  </si>
-  <si>
-    <t>RENALI</t>
-  </si>
-  <si>
     <t>SMOKING</t>
   </si>
   <si>
     <t>STERD</t>
   </si>
   <si>
-    <t>STROKE</t>
-  </si>
-  <si>
-    <t>SVT</t>
-  </si>
-  <si>
-    <t>TDP</t>
-  </si>
-  <si>
-    <t>TIA</t>
-  </si>
-  <si>
     <t>VAHD</t>
   </si>
   <si>
-    <t>VALVUE</t>
-  </si>
-  <si>
     <t>VF</t>
   </si>
   <si>
@@ -533,36 +473,12 @@
     <t>FUR / TOR / MET / DIUR</t>
   </si>
   <si>
-    <t>DIGX</t>
-  </si>
-  <si>
-    <t>Digoxin</t>
-  </si>
-  <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>Natrecor</t>
-  </si>
-  <si>
     <t>Any Vasodilators / Nitrates</t>
   </si>
   <si>
-    <t>AMR / MIL</t>
-  </si>
-  <si>
-    <t>Amrinone / Milrinone, phosphodiesterase inhibitors</t>
-  </si>
-  <si>
     <t>Any ACE Inhibitor or ARB</t>
   </si>
   <si>
-    <t>DOB / DOP</t>
-  </si>
-  <si>
-    <t>Dobutamine, Dopamine</t>
-  </si>
-  <si>
     <t>BIS / CAR / ATE / PRO</t>
   </si>
   <si>
@@ -572,9 +488,6 @@
     <t>BEN / LIS / MON / VALSA/ ANGIO / LOSA / CAND / CAP/ ENA / FOS / QUI / RAM / TRA</t>
   </si>
   <si>
-    <t>Drug dosage</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
@@ -611,12 +524,6 @@
     <t>Angina Pectoris</t>
   </si>
   <si>
-    <t>Aortic Regurgitation</t>
-  </si>
-  <si>
-    <t>Aortic Stenosis</t>
-  </si>
-  <si>
     <t>Arrhythmias</t>
   </si>
   <si>
@@ -626,18 +533,12 @@
     <t>Cerebrovascular Disease</t>
   </si>
   <si>
-    <t>Cytoxic drug therapy etiology</t>
-  </si>
-  <si>
     <t>Depression</t>
   </si>
   <si>
     <t>Diabetes</t>
   </si>
   <si>
-    <t>Familial etiology</t>
-  </si>
-  <si>
     <t>Gout</t>
   </si>
   <si>
@@ -647,82 +548,127 @@
     <t>Hypertension</t>
   </si>
   <si>
-    <t>Hypertensive etiology</t>
-  </si>
-  <si>
     <t>Heart Transplant</t>
   </si>
   <si>
     <t>Implantable Cardiac defibrillator</t>
   </si>
   <si>
-    <t>Idiopathic etiology</t>
-  </si>
-  <si>
-    <t>Ischemic Heart disease</t>
-  </si>
-  <si>
-    <t>ischemic etiology</t>
-  </si>
-  <si>
     <t>Malignancy</t>
   </si>
   <si>
-    <t>Myocardial infarction</t>
-  </si>
-  <si>
-    <t>Mitral stenosis</t>
-  </si>
-  <si>
     <t>Pace maker</t>
   </si>
   <si>
-    <t>Peripartum etiology</t>
-  </si>
-  <si>
-    <t>Primary mitral regurgitation</t>
-  </si>
-  <si>
-    <t>Primary tricuspid regurgitation</t>
-  </si>
-  <si>
-    <t>Peripheral vascular disease</t>
-  </si>
-  <si>
-    <t>Renal insufficiency</t>
-  </si>
-  <si>
     <t>Cigarette smoker</t>
   </si>
   <si>
     <t>Chronic steroid use</t>
   </si>
   <si>
-    <t>Sustained Ventricular tachycardia</t>
-  </si>
-  <si>
-    <t>Torsades de pointe</t>
-  </si>
-  <si>
-    <t>Vascular heart disease</t>
-  </si>
-  <si>
-    <t>Valcular etiology</t>
-  </si>
-  <si>
     <t>Ventricular fibrillation</t>
   </si>
   <si>
-    <t>Transient Ischemic Attack</t>
-  </si>
-  <si>
     <t>Devices / Procedures</t>
   </si>
   <si>
-    <t>Stroke</t>
-  </si>
-  <si>
     <t>Coronary Artery Bypass Grafting</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>Coronary Perfusion Pressure</t>
+  </si>
+  <si>
+    <t>Systemic Arterial Pulsatility Index</t>
+  </si>
+  <si>
+    <t>(Sys BP - Dias BP) / PCWP</t>
+  </si>
+  <si>
+    <t>Dias BP - PCWP</t>
+  </si>
+  <si>
+    <t>PP / RAP</t>
+  </si>
+  <si>
+    <t>Ratio of PP / RAP</t>
+  </si>
+  <si>
+    <t>Pulmonary Artery Pulsality Index</t>
+  </si>
+  <si>
+    <t>SAPi</t>
+  </si>
+  <si>
+    <t>(PAS - PAD) / RAP</t>
+  </si>
+  <si>
+    <t>PAPi</t>
+  </si>
+  <si>
+    <t>HF Conditions</t>
+  </si>
+  <si>
+    <t>Ischemic Heart Disease</t>
+  </si>
+  <si>
+    <t>Ischemic HD, ischemic etiology, myocaridal infarction, Cytoxic drug therapy etiology</t>
+  </si>
+  <si>
+    <t>Non-Ischemic Heart Disease</t>
+  </si>
+  <si>
+    <t>Nonischemic HD, Familial etiology, hypertensive etiology, idiopathic, peripartum etiology</t>
+  </si>
+  <si>
+    <t>Stroke/TIA</t>
+  </si>
+  <si>
+    <t>Stroke, Transient Ischemic Attack</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Ventricular Tachycardia</t>
+  </si>
+  <si>
+    <t>Sustained VT, Torsades de pointe</t>
+  </si>
+  <si>
+    <t>Valvular Heart Disease</t>
+  </si>
+  <si>
+    <t>VHD</t>
+  </si>
+  <si>
+    <t>Aortic regurgitation, aortic stenosis, Mitral stenosis, Primary mitral regurgitation, Primary tricuspid regurgitation, valvular etiology</t>
+  </si>
+  <si>
+    <t>Vascular Heart Disease</t>
+  </si>
+  <si>
+    <t>VAHD, Peripheral vascular disease</t>
+  </si>
+  <si>
+    <t>*Check Boxes</t>
+  </si>
+  <si>
+    <t>Renal insufficiency/Failure</t>
+  </si>
+  <si>
+    <t>RENAL</t>
+  </si>
+  <si>
+    <t>ISCH</t>
+  </si>
+  <si>
+    <t>NonISCH</t>
+  </si>
+  <si>
+    <t>PRAPRat</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32E90D8-0482-BA4B-B75F-C9DD8C8422E0}">
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,772 +1303,685 @@
         <v>47</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
+      <c r="A45" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>75</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B51" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>70</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>81</v>
-      </c>
       <c r="B57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B58" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>85</v>
       </c>
-      <c r="B60" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>86</v>
       </c>
-      <c r="B61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>87</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="B78" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="B82" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="C82" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>91</v>
       </c>
-      <c r="B66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>92</v>
       </c>
-      <c r="B67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>94</v>
       </c>
-      <c r="B69" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>95</v>
       </c>
-      <c r="B70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>153</v>
+      </c>
+      <c r="B120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B73" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>108</v>
-      </c>
-      <c r="B79" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>114</v>
-      </c>
-      <c r="B85" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>127</v>
-      </c>
-      <c r="B104" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>131</v>
-      </c>
-      <c r="B106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>133</v>
-      </c>
-      <c r="B107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>135</v>
-      </c>
-      <c r="B108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>137</v>
-      </c>
-      <c r="B109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>139</v>
-      </c>
-      <c r="B110" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>141</v>
-      </c>
-      <c r="B111" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>145</v>
-      </c>
-      <c r="B113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>147</v>
-      </c>
-      <c r="B114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>151</v>
-      </c>
-      <c r="B116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>153</v>
-      </c>
-      <c r="B117" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B123" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+      <c r="C123" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B120" t="s">
-        <v>173</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B121" t="s">
-        <v>159</v>
-      </c>
-      <c r="C121" t="s">
-        <v>176</v>
-      </c>
-      <c r="D121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B122" t="s">
-        <v>170</v>
-      </c>
-      <c r="C122" t="s">
-        <v>177</v>
-      </c>
-      <c r="D122" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B123" t="s">
-        <v>162</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D123" t="s">
-        <v>164</v>
-      </c>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>171</v>
+      <c r="A124" t="s">
+        <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>172</v>
-      </c>
-      <c r="D124" t="s">
-        <v>179</v>
+        <v>26</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>166</v>
+      <c r="A125" t="s">
+        <v>34</v>
       </c>
       <c r="B125" t="s">
-        <v>167</v>
-      </c>
-      <c r="D125" t="s">
-        <v>179</v>
+        <v>35</v>
+      </c>
+      <c r="C125" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>174</v>
+      <c r="A126" t="s">
+        <v>37</v>
       </c>
       <c r="B126" t="s">
-        <v>175</v>
-      </c>
-      <c r="D126" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="C126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
-      </c>
-      <c r="D127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>180</v>
-      </c>
-      <c r="B130" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>181</v>
-      </c>
-      <c r="B131" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>182</v>
-      </c>
-      <c r="B132" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B134" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>25</v>
-      </c>
-      <c r="B136" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>34</v>
-      </c>
-      <c r="B137" t="s">
-        <v>35</v>
-      </c>
-      <c r="C137" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" t="s">
-        <v>38</v>
-      </c>
-      <c r="C138" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>45</v>
-      </c>
-      <c r="B139" t="s">
         <v>46</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C127" t="s">
         <v>47</v>
       </c>
+      <c r="D127"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Preprocessed Data/Data_Dictionary_Ref.xlsx
+++ b/Data/Preprocessed Data/Data_Dictionary_Ref.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josie/PycharmProjects/HemoPheno4HF/Data/Preprocessed Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3838ABD7-2AE3-B74D-B169-34729A7CA2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772905C9-E0CD-574F-B70F-9D0DF054D21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{3C7A453F-F56A-6346-B453-C1F685D97160}"/>
   </bookViews>
@@ -1040,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32E90D8-0482-BA4B-B75F-C9DD8C8422E0}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1048,7 +1048,7 @@
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="3" max="3" width="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">

--- a/Data/Preprocessed Data/Data_Dictionary_Ref.xlsx
+++ b/Data/Preprocessed Data/Data_Dictionary_Ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josie/PycharmProjects/HemoPheno4HF/Data/Preprocessed Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772905C9-E0CD-574F-B70F-9D0DF054D21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203E3949-A4B9-EA42-A2CC-E2336C7094D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{3C7A453F-F56A-6346-B453-C1F685D97160}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{3C7A453F-F56A-6346-B453-C1F685D97160}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="245">
   <si>
     <t>*Bold is the category name, underneath is the parameters in that section</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Pulmonary Capillary Wedge Pressure</t>
   </si>
   <si>
-    <t>PCWPMN</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
     <t>Mean Pulmonary Pressure</t>
   </si>
   <si>
-    <t>* Can select Normal, Modified or Mean of A wave</t>
-  </si>
-  <si>
-    <t>Pulmonary Capillary Wedge Pressure Mean</t>
-  </si>
-  <si>
     <t>Demographic</t>
   </si>
   <si>
@@ -221,9 +212,6 @@
     <t>Composite Hemodynamics</t>
   </si>
   <si>
-    <t>* Optional</t>
-  </si>
-  <si>
     <t>*These ones are calculated from the other hemodynamics</t>
   </si>
   <si>
@@ -669,13 +657,209 @@
   </si>
   <si>
     <t>PRAPRat</t>
+  </si>
+  <si>
+    <t>UNITs</t>
+  </si>
+  <si>
+    <t># days</t>
+  </si>
+  <si>
+    <t>Acceptable Range</t>
+  </si>
+  <si>
+    <t>Button - M/F</t>
+  </si>
+  <si>
+    <t>18-150</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Check box</t>
+  </si>
+  <si>
+    <t>Whole number Percentage</t>
+  </si>
+  <si>
+    <t>0 - 100%</t>
+  </si>
+  <si>
+    <t>20-220</t>
+  </si>
+  <si>
+    <t>BPM (beats per minute)</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>50-200</t>
+  </si>
+  <si>
+    <t>L/min</t>
+  </si>
+  <si>
+    <r>
+      <t>L/min/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Whole Number Percentage</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>0-1000</t>
+  </si>
+  <si>
+    <r>
+      <t>W/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mmHg * min *mL</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Button M/F</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>0-105</t>
+  </si>
+  <si>
+    <r>
+      <t>kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>10-500</t>
+  </si>
+  <si>
+    <t>10-100</t>
+  </si>
+  <si>
+    <t>Distance in Feet</t>
+  </si>
+  <si>
+    <t>g/L</t>
+  </si>
+  <si>
+    <t>0-100%</t>
+  </si>
+  <si>
+    <t>U/L</t>
+  </si>
+  <si>
+    <t>mg/dL</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/L</t>
+    </r>
+  </si>
+  <si>
+    <t>mmol/L</t>
+  </si>
+  <si>
+    <t>0-500</t>
+  </si>
+  <si>
+    <t>0-200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -696,6 +880,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,12 +917,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1038,952 +1238,1340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32E90D8-0482-BA4B-B75F-C9DD8C8422E0}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="77" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="77" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="5"/>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B72" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>214</v>
+      </c>
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B99" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D102" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" t="s">
+        <v>241</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" t="s">
+        <v>242</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D107" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="E110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B111" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" t="s">
+        <v>144</v>
+      </c>
+      <c r="F112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" t="s">
+        <v>145</v>
+      </c>
+      <c r="F113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" t="s">
+        <v>214</v>
+      </c>
+      <c r="D114" t="s">
+        <v>138</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" t="s">
+        <v>220</v>
+      </c>
+      <c r="D118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>149</v>
+      </c>
+      <c r="B119" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="E123" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="D124" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E124" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="D125" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E125" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E126" t="s">
         <v>46</v>
       </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>211</v>
-      </c>
-      <c r="B38" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>209</v>
-      </c>
-      <c r="B58" t="s">
-        <v>192</v>
-      </c>
-      <c r="C58" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B70" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>93</v>
-      </c>
-      <c r="B74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>208</v>
-      </c>
-      <c r="B75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B78" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" t="s">
-        <v>204</v>
-      </c>
-      <c r="C79" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>202</v>
-      </c>
-      <c r="B81" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>198</v>
-      </c>
-      <c r="B82" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>107</v>
-      </c>
-      <c r="B96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>113</v>
-      </c>
-      <c r="B99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>115</v>
-      </c>
-      <c r="B100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>117</v>
-      </c>
-      <c r="B101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>121</v>
-      </c>
-      <c r="B103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>123</v>
-      </c>
-      <c r="B104" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>125</v>
-      </c>
-      <c r="B105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>129</v>
-      </c>
-      <c r="B107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>131</v>
-      </c>
-      <c r="B108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>133</v>
-      </c>
-      <c r="B109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C111" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B112" t="s">
-        <v>147</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D112" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B113" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" t="s">
-        <v>148</v>
-      </c>
-      <c r="D113" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B114" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" t="s">
-        <v>149</v>
-      </c>
-      <c r="D114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B115" t="s">
-        <v>142</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D115" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>151</v>
-      </c>
-      <c r="B118" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>152</v>
-      </c>
-      <c r="B119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>153</v>
-      </c>
-      <c r="B120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B122" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B124" t="s">
-        <v>26</v>
-      </c>
-      <c r="C124" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>34</v>
-      </c>
-      <c r="B125" t="s">
-        <v>35</v>
-      </c>
-      <c r="C125" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" t="s">
-        <v>38</v>
-      </c>
-      <c r="C126" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>45</v>
-      </c>
-      <c r="B127" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" t="s">
-        <v>47</v>
-      </c>
-      <c r="D127"/>
+      <c r="F126"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>